--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mif-Cd74.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mif-Cd74.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.6925883566353</v>
+        <v>15.246472</v>
       </c>
       <c r="H2">
-        <v>14.6925883566353</v>
+        <v>30.492944</v>
       </c>
       <c r="I2">
-        <v>0.05414972583113301</v>
+        <v>0.05110757272998513</v>
       </c>
       <c r="J2">
-        <v>0.05414972583113301</v>
+        <v>0.03765554015385331</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.56139784313273</v>
+        <v>2.567723</v>
       </c>
       <c r="N2">
-        <v>2.56139784313273</v>
+        <v>5.135446</v>
       </c>
       <c r="O2">
-        <v>0.0007281319967634575</v>
+        <v>0.0006390486781123314</v>
       </c>
       <c r="P2">
-        <v>0.0007281319967634575</v>
+        <v>0.0004261476301476093</v>
       </c>
       <c r="Q2">
-        <v>37.63356412672272</v>
+        <v>39.148716823256</v>
       </c>
       <c r="R2">
-        <v>37.63356412672272</v>
+        <v>156.594867293024</v>
       </c>
       <c r="S2">
-        <v>3.942814799361665E-05</v>
+        <v>3.266022679462684E-05</v>
       </c>
       <c r="T2">
-        <v>3.942814799361665E-05</v>
+        <v>1.604681919849273E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.6925883566353</v>
+        <v>15.246472</v>
       </c>
       <c r="H3">
-        <v>14.6925883566353</v>
+        <v>30.492944</v>
       </c>
       <c r="I3">
-        <v>0.05414972583113301</v>
+        <v>0.05110757272998513</v>
       </c>
       <c r="J3">
-        <v>0.05414972583113301</v>
+        <v>0.03765554015385331</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.408408520364358</v>
+        <v>0.5022653333333333</v>
       </c>
       <c r="N3">
-        <v>0.408408520364358</v>
+        <v>1.506796</v>
       </c>
       <c r="O3">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250025790664788</v>
       </c>
       <c r="P3">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250363735722072</v>
       </c>
       <c r="Q3">
-        <v>6.000578271056017</v>
+        <v>7.657774341237333</v>
       </c>
       <c r="R3">
-        <v>6.000578271056017</v>
+        <v>45.946646047424</v>
       </c>
       <c r="S3">
-        <v>6.286720208636278E-06</v>
+        <v>6.388578401075782E-06</v>
       </c>
       <c r="T3">
-        <v>6.286720208636278E-06</v>
+        <v>4.708312185740451E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.6925883566353</v>
+        <v>15.246472</v>
       </c>
       <c r="H4">
-        <v>14.6925883566353</v>
+        <v>30.492944</v>
       </c>
       <c r="I4">
-        <v>0.05414972583113301</v>
+        <v>0.05110757272998513</v>
       </c>
       <c r="J4">
-        <v>0.05414972583113301</v>
+        <v>0.03765554015385331</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>796.298143117813</v>
+        <v>1001.459981333333</v>
       </c>
       <c r="N4">
-        <v>796.298143117813</v>
+        <v>3004.379944</v>
       </c>
       <c r="O4">
-        <v>0.2263647400664112</v>
+        <v>0.2492409334081078</v>
       </c>
       <c r="P4">
-        <v>0.2263647400664112</v>
+        <v>0.2493083158110526</v>
       </c>
       <c r="Q4">
-        <v>11699.68082598309</v>
+        <v>15268.73156451919</v>
       </c>
       <c r="R4">
-        <v>11699.68082598309</v>
+        <v>91612.38938711515</v>
       </c>
       <c r="S4">
-        <v>0.01225758861243186</v>
+        <v>0.01273809913144425</v>
       </c>
       <c r="T4">
-        <v>0.01225758861243186</v>
+        <v>0.009387839296712636</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.6925883566353</v>
+        <v>15.246472</v>
       </c>
       <c r="H5">
-        <v>14.6925883566353</v>
+        <v>30.492944</v>
       </c>
       <c r="I5">
-        <v>0.05414972583113301</v>
+        <v>0.05110757272998513</v>
       </c>
       <c r="J5">
-        <v>0.05414972583113301</v>
+        <v>0.03765554015385331</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2709.37697963119</v>
+        <v>2986.508748333333</v>
       </c>
       <c r="N5">
-        <v>2709.37697963119</v>
+        <v>8959.526244999999</v>
       </c>
       <c r="O5">
-        <v>0.7701982241661377</v>
+        <v>0.7432750603524328</v>
       </c>
       <c r="P5">
-        <v>0.7701982241661377</v>
+        <v>0.7434760051127123</v>
       </c>
       <c r="Q5">
-        <v>39807.76066466494</v>
+        <v>45533.72200921921</v>
       </c>
       <c r="R5">
-        <v>39807.76066466494</v>
+        <v>273202.3320553153</v>
       </c>
       <c r="S5">
-        <v>0.04170602267422188</v>
+        <v>0.03798698420534605</v>
       </c>
       <c r="T5">
-        <v>0.04170602267422188</v>
+        <v>0.02799599056394819</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.6925883566353</v>
+        <v>15.246472</v>
       </c>
       <c r="H6">
-        <v>14.6925883566353</v>
+        <v>30.492944</v>
       </c>
       <c r="I6">
-        <v>0.05414972583113301</v>
+        <v>0.05110757272998513</v>
       </c>
       <c r="J6">
-        <v>0.05414972583113301</v>
+        <v>0.03765554015385331</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.527415642228229</v>
+        <v>26.31081333333333</v>
       </c>
       <c r="N6">
-        <v>8.527415642228229</v>
+        <v>78.93244</v>
       </c>
       <c r="O6">
-        <v>0.002424099870098092</v>
+        <v>0.006548171465818925</v>
       </c>
       <c r="P6">
-        <v>0.002424099870098092</v>
+        <v>0.006549941767038025</v>
       </c>
       <c r="Q6">
-        <v>125.2898077771922</v>
+        <v>401.1470787838933</v>
       </c>
       <c r="R6">
-        <v>125.2898077771922</v>
+        <v>2406.88247270336</v>
       </c>
       <c r="S6">
-        <v>0.0001312643433530968</v>
+        <v>0.0003346611494377541</v>
       </c>
       <c r="T6">
-        <v>0.0001312643433530968</v>
+        <v>0.0002466415952141013</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.6925883566353</v>
+        <v>15.246472</v>
       </c>
       <c r="H7">
-        <v>14.6925883566353</v>
+        <v>30.492944</v>
       </c>
       <c r="I7">
-        <v>0.05414972583113301</v>
+        <v>0.05110757272998513</v>
       </c>
       <c r="J7">
-        <v>0.05414972583113301</v>
+        <v>0.03765554015385331</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.593464903586556</v>
+        <v>0.690233</v>
       </c>
       <c r="N7">
-        <v>0.593464903586556</v>
+        <v>1.380466</v>
       </c>
       <c r="O7">
-        <v>0.0001687050632981733</v>
+        <v>0.0001717835164616701</v>
       </c>
       <c r="P7">
-        <v>0.0001687050632981733</v>
+        <v>0.0001145533054771386</v>
       </c>
       <c r="Q7">
-        <v>8.719535532507523</v>
+        <v>10.523618107976</v>
       </c>
       <c r="R7">
-        <v>8.719535532507523</v>
+        <v>42.094472431904</v>
       </c>
       <c r="S7">
-        <v>9.135332923920027E-06</v>
+        <v>8.779438561377401E-06</v>
       </c>
       <c r="T7">
-        <v>9.135332923920027E-06</v>
+        <v>4.313566594151018E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>114.13970135524</v>
+        <v>119.5028333333333</v>
       </c>
       <c r="H8">
-        <v>114.13970135524</v>
+        <v>358.5085</v>
       </c>
       <c r="I8">
-        <v>0.4206633565720515</v>
+        <v>0.4005844595407137</v>
       </c>
       <c r="J8">
-        <v>0.4206633565720515</v>
+        <v>0.4427198376531869</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.56139784313273</v>
+        <v>2.567723</v>
       </c>
       <c r="N8">
-        <v>2.56139784313273</v>
+        <v>5.135446</v>
       </c>
       <c r="O8">
-        <v>0.0007281319967634575</v>
+        <v>0.0006390486781123314</v>
       </c>
       <c r="P8">
-        <v>0.0007281319967634575</v>
+        <v>0.0004261476301476093</v>
       </c>
       <c r="Q8">
-        <v>292.3571848671257</v>
+        <v>306.8501737151666</v>
       </c>
       <c r="R8">
-        <v>292.3571848671257</v>
+        <v>1841.101042291</v>
       </c>
       <c r="S8">
-        <v>0.0003062984497860261</v>
+        <v>0.0002559929693418358</v>
       </c>
       <c r="T8">
-        <v>0.0003062984497860261</v>
+        <v>0.0001886640096352399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>114.13970135524</v>
+        <v>119.5028333333333</v>
       </c>
       <c r="H9">
-        <v>114.13970135524</v>
+        <v>358.5085</v>
       </c>
       <c r="I9">
-        <v>0.4206633565720515</v>
+        <v>0.4005844595407137</v>
       </c>
       <c r="J9">
-        <v>0.4206633565720515</v>
+        <v>0.4427198376531869</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.408408520364358</v>
+        <v>0.5022653333333333</v>
       </c>
       <c r="N9">
-        <v>0.408408520364358</v>
+        <v>1.506796</v>
       </c>
       <c r="O9">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250025790664788</v>
       </c>
       <c r="P9">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250363735722072</v>
       </c>
       <c r="Q9">
-        <v>46.61562654532328</v>
+        <v>60.02213041844444</v>
       </c>
       <c r="R9">
-        <v>46.61562654532328</v>
+        <v>540.1991737659999</v>
       </c>
       <c r="S9">
-        <v>4.883852658906343E-05</v>
+        <v>5.007409057654074E-05</v>
       </c>
       <c r="T9">
-        <v>4.883852658906343E-05</v>
+        <v>5.53560830086308E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>114.13970135524</v>
+        <v>119.5028333333333</v>
       </c>
       <c r="H10">
-        <v>114.13970135524</v>
+        <v>358.5085</v>
       </c>
       <c r="I10">
-        <v>0.4206633565720515</v>
+        <v>0.4005844595407137</v>
       </c>
       <c r="J10">
-        <v>0.4206633565720515</v>
+        <v>0.4427198376531869</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>796.298143117813</v>
+        <v>1001.459981333333</v>
       </c>
       <c r="N10">
-        <v>796.298143117813</v>
+        <v>3004.379944</v>
       </c>
       <c r="O10">
-        <v>0.2263647400664112</v>
+        <v>0.2492409334081078</v>
       </c>
       <c r="P10">
-        <v>0.2263647400664112</v>
+        <v>0.2493083158110526</v>
       </c>
       <c r="Q10">
-        <v>90889.23224519934</v>
+        <v>119677.3052392805</v>
       </c>
       <c r="R10">
-        <v>90889.23224519934</v>
+        <v>1077095.747153524</v>
       </c>
       <c r="S10">
-        <v>0.09522335136589648</v>
+        <v>0.09984204460470987</v>
       </c>
       <c r="T10">
-        <v>0.09522335136589648</v>
+        <v>0.1103737371014587</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>114.13970135524</v>
+        <v>119.5028333333333</v>
       </c>
       <c r="H11">
-        <v>114.13970135524</v>
+        <v>358.5085</v>
       </c>
       <c r="I11">
-        <v>0.4206633565720515</v>
+        <v>0.4005844595407137</v>
       </c>
       <c r="J11">
-        <v>0.4206633565720515</v>
+        <v>0.4427198376531869</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2709.37697963119</v>
+        <v>2986.508748333333</v>
       </c>
       <c r="N11">
-        <v>2709.37697963119</v>
+        <v>8959.526244999999</v>
       </c>
       <c r="O11">
-        <v>0.7701982241661377</v>
+        <v>0.7432750603524328</v>
       </c>
       <c r="P11">
-        <v>0.7701982241661377</v>
+        <v>0.7434760051127123</v>
       </c>
       <c r="Q11">
-        <v>309247.4793138662</v>
+        <v>356896.2572006203</v>
       </c>
       <c r="R11">
-        <v>309247.4793138662</v>
+        <v>3212066.314805582</v>
       </c>
       <c r="S11">
-        <v>0.3239941702035608</v>
+        <v>0.2977444383413707</v>
       </c>
       <c r="T11">
-        <v>0.3239941702035608</v>
+        <v>0.3291515762825399</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>114.13970135524</v>
+        <v>119.5028333333333</v>
       </c>
       <c r="H12">
-        <v>114.13970135524</v>
+        <v>358.5085</v>
       </c>
       <c r="I12">
-        <v>0.4206633565720515</v>
+        <v>0.4005844595407137</v>
       </c>
       <c r="J12">
-        <v>0.4206633565720515</v>
+        <v>0.4427198376531869</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.527415642228229</v>
+        <v>26.31081333333333</v>
       </c>
       <c r="N12">
-        <v>8.527415642228229</v>
+        <v>78.93244</v>
       </c>
       <c r="O12">
-        <v>0.002424099870098092</v>
+        <v>0.006548171465818925</v>
       </c>
       <c r="P12">
-        <v>0.002424099870098092</v>
+        <v>0.006549941767038025</v>
       </c>
       <c r="Q12">
-        <v>973.3166747359322</v>
+        <v>3144.216740637778</v>
       </c>
       <c r="R12">
-        <v>973.3166747359322</v>
+        <v>28297.95066574</v>
       </c>
       <c r="S12">
-        <v>0.001019729988021337</v>
+        <v>0.002623095727614997</v>
       </c>
       <c r="T12">
-        <v>0.001019729988021337</v>
+        <v>0.002899789155740903</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>114.13970135524</v>
+        <v>119.5028333333333</v>
       </c>
       <c r="H13">
-        <v>114.13970135524</v>
+        <v>358.5085</v>
       </c>
       <c r="I13">
-        <v>0.4206633565720515</v>
+        <v>0.4005844595407137</v>
       </c>
       <c r="J13">
-        <v>0.4206633565720515</v>
+        <v>0.4427198376531869</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.593464903586556</v>
+        <v>0.690233</v>
       </c>
       <c r="N13">
-        <v>0.593464903586556</v>
+        <v>1.380466</v>
       </c>
       <c r="O13">
-        <v>0.0001687050632981733</v>
+        <v>0.0001717835164616701</v>
       </c>
       <c r="P13">
-        <v>0.0001687050632981733</v>
+        <v>0.0001145533054771386</v>
       </c>
       <c r="Q13">
-        <v>67.7379068601858</v>
+        <v>82.48479916016666</v>
       </c>
       <c r="R13">
-        <v>67.7379068601858</v>
+        <v>494.908794961</v>
       </c>
       <c r="S13">
-        <v>7.096803819771001E-05</v>
+        <v>6.88138070998014E-05</v>
       </c>
       <c r="T13">
-        <v>7.096803819771001E-05</v>
+        <v>5.071502080347473E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.6858073168922</v>
+        <v>43.507309</v>
       </c>
       <c r="H14">
-        <v>41.6858073168922</v>
+        <v>130.521927</v>
       </c>
       <c r="I14">
-        <v>0.1536335860277298</v>
+        <v>0.1458404907708115</v>
       </c>
       <c r="J14">
-        <v>0.1536335860277298</v>
+        <v>0.1611806870175215</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.56139784313273</v>
+        <v>2.567723</v>
       </c>
       <c r="N14">
-        <v>2.56139784313273</v>
+        <v>5.135446</v>
       </c>
       <c r="O14">
-        <v>0.0007281319967634575</v>
+        <v>0.0006390486781123314</v>
       </c>
       <c r="P14">
-        <v>0.0007281319967634575</v>
+        <v>0.0004261476301476093</v>
       </c>
       <c r="Q14">
-        <v>106.7739369507343</v>
+        <v>111.714717987407</v>
       </c>
       <c r="R14">
-        <v>106.7739369507343</v>
+        <v>670.2883079244421</v>
       </c>
       <c r="S14">
-        <v>0.0001118655297643013</v>
+        <v>9.319917284234078E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001118655297643013</v>
+        <v>6.868676779808034E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.6858073168922</v>
+        <v>43.507309</v>
       </c>
       <c r="H15">
-        <v>41.6858073168922</v>
+        <v>130.521927</v>
       </c>
       <c r="I15">
-        <v>0.1536335860277298</v>
+        <v>0.1458404907708115</v>
       </c>
       <c r="J15">
-        <v>0.1536335860277298</v>
+        <v>0.1611806870175215</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.408408520364358</v>
+        <v>0.5022653333333333</v>
       </c>
       <c r="N15">
-        <v>0.408408520364358</v>
+        <v>1.506796</v>
       </c>
       <c r="O15">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250025790664788</v>
       </c>
       <c r="P15">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250363735722072</v>
       </c>
       <c r="Q15">
-        <v>17.02483888648567</v>
+        <v>21.85221305732133</v>
       </c>
       <c r="R15">
-        <v>17.02483888648567</v>
+        <v>196.669917515892</v>
       </c>
       <c r="S15">
-        <v>1.783668070670968E-05</v>
+        <v>1.823043747867244E-05</v>
       </c>
       <c r="T15">
-        <v>1.783668070670968E-05</v>
+        <v>2.015344859454783E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.6858073168922</v>
+        <v>43.507309</v>
       </c>
       <c r="H16">
-        <v>41.6858073168922</v>
+        <v>130.521927</v>
       </c>
       <c r="I16">
-        <v>0.1536335860277298</v>
+        <v>0.1458404907708115</v>
       </c>
       <c r="J16">
-        <v>0.1536335860277298</v>
+        <v>0.1611806870175215</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>796.298143117813</v>
+        <v>1001.459981333333</v>
       </c>
       <c r="N16">
-        <v>796.298143117813</v>
+        <v>3004.379944</v>
       </c>
       <c r="O16">
-        <v>0.2263647400664112</v>
+        <v>0.2492409334081078</v>
       </c>
       <c r="P16">
-        <v>0.2263647400664112</v>
+        <v>0.2493083158110526</v>
       </c>
       <c r="Q16">
-        <v>33194.3309608082</v>
+        <v>43570.82885900357</v>
       </c>
       <c r="R16">
-        <v>33194.3309608082</v>
+        <v>392137.4597310321</v>
       </c>
       <c r="S16">
-        <v>0.03477722676663769</v>
+        <v>0.0363494200484136</v>
       </c>
       <c r="T16">
-        <v>0.03477722676663769</v>
+        <v>0.04018368562160669</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.6858073168922</v>
+        <v>43.507309</v>
       </c>
       <c r="H17">
-        <v>41.6858073168922</v>
+        <v>130.521927</v>
       </c>
       <c r="I17">
-        <v>0.1536335860277298</v>
+        <v>0.1458404907708115</v>
       </c>
       <c r="J17">
-        <v>0.1536335860277298</v>
+        <v>0.1611806870175215</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2709.37697963119</v>
+        <v>2986.508748333333</v>
       </c>
       <c r="N17">
-        <v>2709.37697963119</v>
+        <v>8959.526244999999</v>
       </c>
       <c r="O17">
-        <v>0.7701982241661377</v>
+        <v>0.7432750603524328</v>
       </c>
       <c r="P17">
-        <v>0.7701982241661377</v>
+        <v>0.7434760051127123</v>
       </c>
       <c r="Q17">
-        <v>112942.5667217291</v>
+        <v>129934.9589449416</v>
       </c>
       <c r="R17">
-        <v>112942.5667217291</v>
+        <v>1169414.630504474</v>
       </c>
       <c r="S17">
-        <v>0.1183283151308331</v>
+        <v>0.1083995995795034</v>
       </c>
       <c r="T17">
-        <v>0.1183283151308331</v>
+        <v>0.1198339732851093</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>41.6858073168922</v>
+        <v>43.507309</v>
       </c>
       <c r="H18">
-        <v>41.6858073168922</v>
+        <v>130.521927</v>
       </c>
       <c r="I18">
-        <v>0.1536335860277298</v>
+        <v>0.1458404907708115</v>
       </c>
       <c r="J18">
-        <v>0.1536335860277298</v>
+        <v>0.1611806870175215</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.527415642228229</v>
+        <v>26.31081333333333</v>
       </c>
       <c r="N18">
-        <v>8.527415642228229</v>
+        <v>78.93244</v>
       </c>
       <c r="O18">
-        <v>0.002424099870098092</v>
+        <v>0.006548171465818925</v>
       </c>
       <c r="P18">
-        <v>0.002424099870098092</v>
+        <v>0.006549941767038025</v>
       </c>
       <c r="Q18">
-        <v>355.4722053729785</v>
+        <v>1144.712685734653</v>
       </c>
       <c r="R18">
-        <v>355.4722053729785</v>
+        <v>10302.41417161188</v>
       </c>
       <c r="S18">
-        <v>0.0003724231559325239</v>
+        <v>0.0009549885402264565</v>
       </c>
       <c r="T18">
-        <v>0.0003724231559325239</v>
+        <v>0.001055724113935948</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>41.6858073168922</v>
+        <v>43.507309</v>
       </c>
       <c r="H19">
-        <v>41.6858073168922</v>
+        <v>130.521927</v>
       </c>
       <c r="I19">
-        <v>0.1536335860277298</v>
+        <v>0.1458404907708115</v>
       </c>
       <c r="J19">
-        <v>0.1536335860277298</v>
+        <v>0.1611806870175215</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.593464903586556</v>
+        <v>0.690233</v>
       </c>
       <c r="N19">
-        <v>0.593464903586556</v>
+        <v>1.380466</v>
       </c>
       <c r="O19">
-        <v>0.0001687050632981733</v>
+        <v>0.0001717835164616701</v>
       </c>
       <c r="P19">
-        <v>0.0001687050632981733</v>
+        <v>0.0001145533054771386</v>
       </c>
       <c r="Q19">
-        <v>24.73906362024718</v>
+        <v>30.030180412997</v>
       </c>
       <c r="R19">
-        <v>24.73906362024718</v>
+        <v>180.181082477982</v>
       </c>
       <c r="S19">
-        <v>2.591876385553352E-05</v>
+        <v>2.505299234710575E-05</v>
       </c>
       <c r="T19">
-        <v>2.591876385553352E-05</v>
+        <v>1.846378047693321E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>36.3620333818753</v>
+        <v>39.03970533333333</v>
       </c>
       <c r="H20">
-        <v>36.3620333818753</v>
+        <v>117.119116</v>
       </c>
       <c r="I20">
-        <v>0.1340127478220567</v>
+        <v>0.130864673458917</v>
       </c>
       <c r="J20">
-        <v>0.1340127478220567</v>
+        <v>0.1446296420352788</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.56139784313273</v>
+        <v>2.567723</v>
       </c>
       <c r="N20">
-        <v>2.56139784313273</v>
+        <v>5.135446</v>
       </c>
       <c r="O20">
-        <v>0.0007281319967634575</v>
+        <v>0.0006390486781123314</v>
       </c>
       <c r="P20">
-        <v>0.0007281319967634575</v>
+        <v>0.0004261476301476093</v>
       </c>
       <c r="Q20">
-        <v>93.13763387625571</v>
+        <v>100.2431492976227</v>
       </c>
       <c r="R20">
-        <v>93.13763387625571</v>
+        <v>601.458895785736</v>
       </c>
       <c r="S20">
-        <v>9.757896966343187E-05</v>
+        <v>8.362889658552283E-05</v>
       </c>
       <c r="T20">
-        <v>9.757896966343187E-05</v>
+        <v>6.163357920243113E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>36.3620333818753</v>
+        <v>39.03970533333333</v>
       </c>
       <c r="H21">
-        <v>36.3620333818753</v>
+        <v>117.119116</v>
       </c>
       <c r="I21">
-        <v>0.1340127478220567</v>
+        <v>0.130864673458917</v>
       </c>
       <c r="J21">
-        <v>0.1340127478220567</v>
+        <v>0.1446296420352788</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.408408520364358</v>
+        <v>0.5022653333333333</v>
       </c>
       <c r="N21">
-        <v>0.408408520364358</v>
+        <v>1.506796</v>
       </c>
       <c r="O21">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250025790664788</v>
       </c>
       <c r="P21">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250363735722072</v>
       </c>
       <c r="Q21">
-        <v>14.85056425093108</v>
+        <v>19.60829061248178</v>
       </c>
       <c r="R21">
-        <v>14.85056425093108</v>
+        <v>176.474615512336</v>
       </c>
       <c r="S21">
-        <v>1.555872420435066E-05</v>
+        <v>1.635842169105721E-05</v>
       </c>
       <c r="T21">
-        <v>1.555872420435066E-05</v>
+        <v>1.808396595113772E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>36.3620333818753</v>
+        <v>39.03970533333333</v>
       </c>
       <c r="H22">
-        <v>36.3620333818753</v>
+        <v>117.119116</v>
       </c>
       <c r="I22">
-        <v>0.1340127478220567</v>
+        <v>0.130864673458917</v>
       </c>
       <c r="J22">
-        <v>0.1340127478220567</v>
+        <v>0.1446296420352788</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>796.298143117813</v>
+        <v>1001.459981333333</v>
       </c>
       <c r="N22">
-        <v>796.298143117813</v>
+        <v>3004.379944</v>
       </c>
       <c r="O22">
-        <v>0.2263647400664112</v>
+        <v>0.2492409334081078</v>
       </c>
       <c r="P22">
-        <v>0.2263647400664112</v>
+        <v>0.2493083158110526</v>
       </c>
       <c r="Q22">
-        <v>28955.01966197523</v>
+        <v>39096.70257437883</v>
       </c>
       <c r="R22">
-        <v>28955.01966197523</v>
+        <v>351870.3231694095</v>
       </c>
       <c r="S22">
-        <v>0.03033576082632539</v>
+        <v>0.03261683336304771</v>
       </c>
       <c r="T22">
-        <v>0.03033576082632539</v>
+        <v>0.03605737247217079</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>36.3620333818753</v>
+        <v>39.03970533333333</v>
       </c>
       <c r="H23">
-        <v>36.3620333818753</v>
+        <v>117.119116</v>
       </c>
       <c r="I23">
-        <v>0.1340127478220567</v>
+        <v>0.130864673458917</v>
       </c>
       <c r="J23">
-        <v>0.1340127478220567</v>
+        <v>0.1446296420352788</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2709.37697963119</v>
+        <v>2986.508748333333</v>
       </c>
       <c r="N23">
-        <v>2709.37697963119</v>
+        <v>8959.526244999999</v>
       </c>
       <c r="O23">
-        <v>0.7701982241661377</v>
+        <v>0.7432750603524328</v>
       </c>
       <c r="P23">
-        <v>0.7701982241661377</v>
+        <v>0.7434760051127123</v>
       </c>
       <c r="Q23">
-        <v>98518.45617743381</v>
+        <v>116592.4215103555</v>
       </c>
       <c r="R23">
-        <v>98518.45617743381</v>
+        <v>1049331.793593199</v>
       </c>
       <c r="S23">
-        <v>0.1032163803881725</v>
+        <v>0.09726844806317797</v>
       </c>
       <c r="T23">
-        <v>0.1032163803881725</v>
+        <v>0.1075286684812707</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>36.3620333818753</v>
+        <v>39.03970533333333</v>
       </c>
       <c r="H24">
-        <v>36.3620333818753</v>
+        <v>117.119116</v>
       </c>
       <c r="I24">
-        <v>0.1340127478220567</v>
+        <v>0.130864673458917</v>
       </c>
       <c r="J24">
-        <v>0.1340127478220567</v>
+        <v>0.1446296420352788</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.527415642228229</v>
+        <v>26.31081333333333</v>
       </c>
       <c r="N24">
-        <v>8.527415642228229</v>
+        <v>78.93244</v>
       </c>
       <c r="O24">
-        <v>0.002424099870098092</v>
+        <v>0.006548171465818925</v>
       </c>
       <c r="P24">
-        <v>0.002424099870098092</v>
+        <v>0.006549941767038025</v>
       </c>
       <c r="Q24">
-        <v>310.0741722438285</v>
+        <v>1027.166399613671</v>
       </c>
       <c r="R24">
-        <v>310.0741722438285</v>
+        <v>9244.497596523039</v>
       </c>
       <c r="S24">
-        <v>0.0003248602845869361</v>
+        <v>0.0008569243206273917</v>
       </c>
       <c r="T24">
-        <v>0.0003248602845869361</v>
+        <v>0.0009473157331186313</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>36.3620333818753</v>
+        <v>39.03970533333333</v>
       </c>
       <c r="H25">
-        <v>36.3620333818753</v>
+        <v>117.119116</v>
       </c>
       <c r="I25">
-        <v>0.1340127478220567</v>
+        <v>0.130864673458917</v>
       </c>
       <c r="J25">
-        <v>0.1340127478220567</v>
+        <v>0.1446296420352788</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.593464903586556</v>
+        <v>0.690233</v>
       </c>
       <c r="N25">
-        <v>0.593464903586556</v>
+        <v>1.380466</v>
       </c>
       <c r="O25">
-        <v>0.0001687050632981733</v>
+        <v>0.0001717835164616701</v>
       </c>
       <c r="P25">
-        <v>0.0001687050632981733</v>
+        <v>0.0001145533054771386</v>
       </c>
       <c r="Q25">
-        <v>21.57959063518576</v>
+        <v>26.94649293134266</v>
       </c>
       <c r="R25">
-        <v>21.57959063518576</v>
+        <v>161.678957588056</v>
       </c>
       <c r="S25">
-        <v>2.260862910408222E-05</v>
+        <v>2.248039378738095E-05</v>
       </c>
       <c r="T25">
-        <v>2.260862910408222E-05</v>
+        <v>1.65678035651165E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.2292094931144</v>
+        <v>11.094161</v>
       </c>
       <c r="H26">
-        <v>10.2292094931144</v>
+        <v>33.282483</v>
       </c>
       <c r="I26">
-        <v>0.03769988487230827</v>
+        <v>0.0371886453591142</v>
       </c>
       <c r="J26">
-        <v>0.03769988487230827</v>
+        <v>0.04110032389874983</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.56139784313273</v>
+        <v>2.567723</v>
       </c>
       <c r="N26">
-        <v>2.56139784313273</v>
+        <v>5.135446</v>
       </c>
       <c r="O26">
-        <v>0.0007281319967634575</v>
+        <v>0.0006390486781123314</v>
       </c>
       <c r="P26">
-        <v>0.0007281319967634575</v>
+        <v>0.0004261476301476093</v>
       </c>
       <c r="Q26">
-        <v>26.20107513261607</v>
+        <v>28.486732365403</v>
       </c>
       <c r="R26">
-        <v>26.20107513261607</v>
+        <v>170.920394192418</v>
       </c>
       <c r="S26">
-        <v>2.745049244982628E-05</v>
+        <v>2.376535465753022E-05</v>
       </c>
       <c r="T26">
-        <v>2.745049244982628E-05</v>
+        <v>1.751480562775139E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>10.2292094931144</v>
+        <v>11.094161</v>
       </c>
       <c r="H27">
-        <v>10.2292094931144</v>
+        <v>33.282483</v>
       </c>
       <c r="I27">
-        <v>0.03769988487230827</v>
+        <v>0.0371886453591142</v>
       </c>
       <c r="J27">
-        <v>0.03769988487230827</v>
+        <v>0.04110032389874983</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.408408520364358</v>
+        <v>0.5022653333333333</v>
       </c>
       <c r="N27">
-        <v>0.408408520364358</v>
+        <v>1.506796</v>
       </c>
       <c r="O27">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250025790664788</v>
       </c>
       <c r="P27">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250363735722072</v>
       </c>
       <c r="Q27">
-        <v>4.177696313579896</v>
+        <v>5.572212472718666</v>
       </c>
       <c r="R27">
-        <v>4.177696313579896</v>
+        <v>50.149912254468</v>
       </c>
       <c r="S27">
-        <v>4.376912799690207E-06</v>
+        <v>4.648676581877912E-06</v>
       </c>
       <c r="T27">
-        <v>4.376912799690207E-06</v>
+        <v>5.139035452942799E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>10.2292094931144</v>
+        <v>11.094161</v>
       </c>
       <c r="H28">
-        <v>10.2292094931144</v>
+        <v>33.282483</v>
       </c>
       <c r="I28">
-        <v>0.03769988487230827</v>
+        <v>0.0371886453591142</v>
       </c>
       <c r="J28">
-        <v>0.03769988487230827</v>
+        <v>0.04110032389874983</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>796.298143117813</v>
+        <v>1001.459981333333</v>
       </c>
       <c r="N28">
-        <v>796.298143117813</v>
+        <v>3004.379944</v>
       </c>
       <c r="O28">
-        <v>0.2263647400664112</v>
+        <v>0.2492409334081078</v>
       </c>
       <c r="P28">
-        <v>0.2263647400664112</v>
+        <v>0.2493083158110526</v>
       </c>
       <c r="Q28">
-        <v>8145.500524930101</v>
+        <v>11110.358267969</v>
       </c>
       <c r="R28">
-        <v>8145.500524930101</v>
+        <v>99993.22441172096</v>
       </c>
       <c r="S28">
-        <v>0.008533924639653689</v>
+        <v>0.009268932681488718</v>
       </c>
       <c r="T28">
-        <v>0.008533924639653689</v>
+        <v>0.01024665253048608</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>10.2292094931144</v>
+        <v>11.094161</v>
       </c>
       <c r="H29">
-        <v>10.2292094931144</v>
+        <v>33.282483</v>
       </c>
       <c r="I29">
-        <v>0.03769988487230827</v>
+        <v>0.0371886453591142</v>
       </c>
       <c r="J29">
-        <v>0.03769988487230827</v>
+        <v>0.04110032389874983</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2709.37697963119</v>
+        <v>2986.508748333333</v>
       </c>
       <c r="N29">
-        <v>2709.37697963119</v>
+        <v>8959.526244999999</v>
       </c>
       <c r="O29">
-        <v>0.7701982241661377</v>
+        <v>0.7432750603524328</v>
       </c>
       <c r="P29">
-        <v>0.7701982241661377</v>
+        <v>0.7434760051127123</v>
       </c>
       <c r="Q29">
-        <v>27714.78472046899</v>
+        <v>33132.80888191848</v>
       </c>
       <c r="R29">
-        <v>27714.78472046899</v>
+        <v>298195.2799372663</v>
       </c>
       <c r="S29">
-        <v>0.02903638437991967</v>
+        <v>0.02764139262372083</v>
       </c>
       <c r="T29">
-        <v>0.02903638437991967</v>
+        <v>0.03055710462108106</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>10.2292094931144</v>
+        <v>11.094161</v>
       </c>
       <c r="H30">
-        <v>10.2292094931144</v>
+        <v>33.282483</v>
       </c>
       <c r="I30">
-        <v>0.03769988487230827</v>
+        <v>0.0371886453591142</v>
       </c>
       <c r="J30">
-        <v>0.03769988487230827</v>
+        <v>0.04110032389874983</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.527415642228229</v>
+        <v>26.31081333333333</v>
       </c>
       <c r="N30">
-        <v>8.527415642228229</v>
+        <v>78.93244</v>
       </c>
       <c r="O30">
-        <v>0.002424099870098092</v>
+        <v>0.006548171465818925</v>
       </c>
       <c r="P30">
-        <v>0.002424099870098092</v>
+        <v>0.006549941767038025</v>
       </c>
       <c r="Q30">
-        <v>87.22872103921323</v>
+        <v>291.8963991609467</v>
       </c>
       <c r="R30">
-        <v>87.22872103921323</v>
+        <v>2627.06759244852</v>
       </c>
       <c r="S30">
-        <v>9.138828602167549E-05</v>
+        <v>0.000243517626393011</v>
       </c>
       <c r="T30">
-        <v>9.138828602167549E-05</v>
+        <v>0.0002692047281432127</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>10.2292094931144</v>
+        <v>11.094161</v>
       </c>
       <c r="H31">
-        <v>10.2292094931144</v>
+        <v>33.282483</v>
       </c>
       <c r="I31">
-        <v>0.03769988487230827</v>
+        <v>0.0371886453591142</v>
       </c>
       <c r="J31">
-        <v>0.03769988487230827</v>
+        <v>0.04110032389874983</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.593464903586556</v>
+        <v>0.690233</v>
       </c>
       <c r="N31">
-        <v>0.593464903586556</v>
+        <v>1.380466</v>
       </c>
       <c r="O31">
-        <v>0.0001687050632981733</v>
+        <v>0.0001717835164616701</v>
       </c>
       <c r="P31">
-        <v>0.0001687050632981733</v>
+        <v>0.0001145533054771386</v>
       </c>
       <c r="Q31">
-        <v>6.070676825597821</v>
+        <v>7.657556029513</v>
       </c>
       <c r="R31">
-        <v>6.070676825597821</v>
+        <v>45.945336177078</v>
       </c>
       <c r="S31">
-        <v>6.360161463716615E-06</v>
+        <v>6.388396272234603E-06</v>
       </c>
       <c r="T31">
-        <v>6.360161463716615E-06</v>
+        <v>4.70817795878283E-06</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>54.2233054812707</v>
+        <v>69.930711</v>
       </c>
       <c r="H32">
-        <v>54.2233054812707</v>
+        <v>139.861422</v>
       </c>
       <c r="I32">
-        <v>0.1998406988747205</v>
+        <v>0.2344141581404584</v>
       </c>
       <c r="J32">
-        <v>0.1998406988747205</v>
+        <v>0.1727139692414095</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.56139784313273</v>
+        <v>2.567723</v>
       </c>
       <c r="N32">
-        <v>2.56139784313273</v>
+        <v>5.135446</v>
       </c>
       <c r="O32">
-        <v>0.0007281319967634575</v>
+        <v>0.0006390486781123314</v>
       </c>
       <c r="P32">
-        <v>0.0007281319967634575</v>
+        <v>0.0004261476301476093</v>
       </c>
       <c r="Q32">
-        <v>138.8874577072539</v>
+        <v>179.562695041053</v>
       </c>
       <c r="R32">
-        <v>138.8874577072539</v>
+        <v>718.2507801642121</v>
       </c>
       <c r="S32">
-        <v>0.0001455104071062551</v>
+        <v>0.000149802057890475</v>
       </c>
       <c r="T32">
-        <v>0.0001455104071062551</v>
+        <v>7.360164868561374E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>54.2233054812707</v>
+        <v>69.930711</v>
       </c>
       <c r="H33">
-        <v>54.2233054812707</v>
+        <v>139.861422</v>
       </c>
       <c r="I33">
-        <v>0.1998406988747205</v>
+        <v>0.2344141581404584</v>
       </c>
       <c r="J33">
-        <v>0.1998406988747205</v>
+        <v>0.1727139692414095</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.408408520364358</v>
+        <v>0.5022653333333333</v>
       </c>
       <c r="N33">
-        <v>0.408408520364358</v>
+        <v>1.506796</v>
       </c>
       <c r="O33">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250025790664788</v>
       </c>
       <c r="P33">
-        <v>0.0001160988372912827</v>
+        <v>0.0001250363735722072</v>
       </c>
       <c r="Q33">
-        <v>22.14525996087035</v>
+        <v>35.123771870652</v>
       </c>
       <c r="R33">
-        <v>22.14525996087035</v>
+        <v>210.742631223912</v>
       </c>
       <c r="S33">
-        <v>2.32012727828324E-05</v>
+        <v>2.930237433725472E-05</v>
       </c>
       <c r="T33">
-        <v>2.32012727828324E-05</v>
+        <v>2.159552837920758E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>54.2233054812707</v>
+        <v>69.930711</v>
       </c>
       <c r="H34">
-        <v>54.2233054812707</v>
+        <v>139.861422</v>
       </c>
       <c r="I34">
-        <v>0.1998406988747205</v>
+        <v>0.2344141581404584</v>
       </c>
       <c r="J34">
-        <v>0.1998406988747205</v>
+        <v>0.1727139692414095</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>796.298143117813</v>
+        <v>1001.459981333333</v>
       </c>
       <c r="N34">
-        <v>796.298143117813</v>
+        <v>3004.379944</v>
       </c>
       <c r="O34">
-        <v>0.2263647400664112</v>
+        <v>0.2492409334081078</v>
       </c>
       <c r="P34">
-        <v>0.2263647400664112</v>
+        <v>0.2493083158110526</v>
       </c>
       <c r="Q34">
-        <v>43177.91746844579</v>
+        <v>70032.80853268673</v>
       </c>
       <c r="R34">
-        <v>43177.91746844579</v>
+        <v>420196.8511961204</v>
       </c>
       <c r="S34">
-        <v>0.04523688785546606</v>
+        <v>0.05842560357900364</v>
       </c>
       <c r="T34">
-        <v>0.04523688785546606</v>
+        <v>0.04305902878861776</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>54.2233054812707</v>
+        <v>69.930711</v>
       </c>
       <c r="H35">
-        <v>54.2233054812707</v>
+        <v>139.861422</v>
       </c>
       <c r="I35">
-        <v>0.1998406988747205</v>
+        <v>0.2344141581404584</v>
       </c>
       <c r="J35">
-        <v>0.1998406988747205</v>
+        <v>0.1727139692414095</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2709.37697963119</v>
+        <v>2986.508748333333</v>
       </c>
       <c r="N35">
-        <v>2709.37697963119</v>
+        <v>8959.526244999999</v>
       </c>
       <c r="O35">
-        <v>0.7701982241661377</v>
+        <v>0.7432750603524328</v>
       </c>
       <c r="P35">
-        <v>0.7701982241661377</v>
+        <v>0.7434760051127123</v>
       </c>
       <c r="Q35">
-        <v>146911.3756304646</v>
+        <v>208848.6801786701</v>
       </c>
       <c r="R35">
-        <v>146911.3756304646</v>
+        <v>1253092.08107202</v>
       </c>
       <c r="S35">
-        <v>0.1539169513894296</v>
+        <v>0.174234197539314</v>
       </c>
       <c r="T35">
-        <v>0.1539169513894296</v>
+        <v>0.128408691878763</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>54.2233054812707</v>
+        <v>69.930711</v>
       </c>
       <c r="H36">
-        <v>54.2233054812707</v>
+        <v>139.861422</v>
       </c>
       <c r="I36">
-        <v>0.1998406988747205</v>
+        <v>0.2344141581404584</v>
       </c>
       <c r="J36">
-        <v>0.1998406988747205</v>
+        <v>0.1727139692414095</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.527415642228229</v>
+        <v>26.31081333333333</v>
       </c>
       <c r="N36">
-        <v>8.527415642228229</v>
+        <v>78.93244</v>
       </c>
       <c r="O36">
-        <v>0.002424099870098092</v>
+        <v>0.006548171465818925</v>
       </c>
       <c r="P36">
-        <v>0.002424099870098092</v>
+        <v>0.006549941767038025</v>
       </c>
       <c r="Q36">
-        <v>462.3846633343074</v>
+        <v>1839.93388338828</v>
       </c>
       <c r="R36">
-        <v>462.3846633343074</v>
+        <v>11039.60330032968</v>
       </c>
       <c r="S36">
-        <v>0.0004844338121825219</v>
+        <v>0.001534984101519315</v>
       </c>
       <c r="T36">
-        <v>0.0004844338121825219</v>
+        <v>0.001131266440885229</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>54.2233054812707</v>
+        <v>69.930711</v>
       </c>
       <c r="H37">
-        <v>54.2233054812707</v>
+        <v>139.861422</v>
       </c>
       <c r="I37">
-        <v>0.1998406988747205</v>
+        <v>0.2344141581404584</v>
       </c>
       <c r="J37">
-        <v>0.1998406988747205</v>
+        <v>0.1727139692414095</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.593464903586556</v>
+        <v>0.690233</v>
       </c>
       <c r="N37">
-        <v>0.593464903586556</v>
+        <v>1.380466</v>
       </c>
       <c r="O37">
-        <v>0.0001687050632981733</v>
+        <v>0.0001717835164616701</v>
       </c>
       <c r="P37">
-        <v>0.0001687050632981733</v>
+        <v>0.0001145533054771386</v>
       </c>
       <c r="Q37">
-        <v>32.17962875958669</v>
+        <v>48.268484445663</v>
       </c>
       <c r="R37">
-        <v>32.17962875958669</v>
+        <v>193.073937782652</v>
       </c>
       <c r="S37">
-        <v>3.371413775321093E-05</v>
+        <v>4.026848839376997E-05</v>
       </c>
       <c r="T37">
-        <v>3.371413775321093E-05</v>
+        <v>1.978495607868031E-05</v>
       </c>
     </row>
   </sheetData>
